--- a/docs/ST6/ST6_14.08.2024_output.xlsx
+++ b/docs/ST6/ST6_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1561 +505,1847 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731502836.9381993</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731502836.9791906</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731502836.9381993.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731502836.9791906.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.17</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.32</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1499999999999773</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731502839.5275285</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731502839.65148</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731502839.5275285.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731502839.65148.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>282.9</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>282.84</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731502842.7005055</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731502842.7385693</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502842.7005055.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502842.7385693.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>283.17</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>283.32</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1499999999999773</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731502844.8516412</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731502844.9687307</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502844.8516412.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502844.9687307.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>282.9</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>282.84</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731502846.4132123</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731502846.4873884</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502846.4132123.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502846.4873884.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>284.24</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>284.16</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731502847.0876274</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731502847.1364279</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502847.0876274.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502847.1364279.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>283.68</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>283.84</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1599999999999682</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731502847.873308</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731502848.1065726</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502847.873308.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502848.1065726.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>284.21</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>284.26</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.05000000000001137</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731502848.5125887</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731502848.590669</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502848.5125887.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502848.590669.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>284.01</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>284.15</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731502853.8757102</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731502854.172415</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731502853.8757102.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731502854.172415.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>131.09</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>130.94</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.1500000000000057</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731502854.9522405</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731502855.217712</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731502854.9522405.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731502855.217712.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>130.96</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>131.1</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.1399999999999864</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731502857.041856</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731502857.2536483</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731502857.041856.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731502857.2536483.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>131.28</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>131.33</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.05000000000001137</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731502858.142784</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731502858.1945133</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731502858.142784.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731502858.1945133.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>131</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>131.04</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731502860.8248339</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731502860.951715</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502860.8248339.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502860.951715.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6468</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6463</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731502861.77058</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731502861.8135219</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502861.77058.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502861.8135219.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6525.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6521</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>4.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731502862.2810266</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731502862.3512998</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502862.2810266.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502862.3512998.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6494</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6501.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>7.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731502864.3647869</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731502864.587315</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502864.3647869.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502864.587315.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6496</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6495</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731502864.7132196</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731502864.8127716</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502864.7132196.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502864.8127716.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6471.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6479.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>8</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731502865.4549806</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731502865.496949</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502865.4549806.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502865.496949.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6459.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6460.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731502868.2531738</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731502868.363462</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502868.2531738.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502868.363462.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>504.65</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>503.9</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731502869.5678453</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731502869.7005825</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502869.5678453.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502869.7005825.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>502.55</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>502.85</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731502870.2422638</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731502870.331079</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502870.2422638.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502870.331079.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>504.1</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>503.75</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.3500000000000227</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731502870.3789032</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731502870.522374</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502870.3789032.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502870.522374.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>504.65</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>504.2</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.4499999999999886</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731502871.3119583</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731502871.4310303</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502871.3119583.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502871.4310303.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>503.15</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>503.1</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.04999999999995453</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731502872.314311</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731502872.4694948</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502872.314311.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502872.4694948.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>501.75</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>501.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731502874.4527278</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731502874.5337372</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502874.4527278.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502874.5337372.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>226.02</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>226.12</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731502875.9040418</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731502875.980169</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502875.9040418.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502875.980169.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>225.34</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>225.49</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731502876.0192087</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731502876.1402326</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502876.0192087.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502876.1402326.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>225.48</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>225.47</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.009999999999990905</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731502876.7473056</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731502876.787321</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502876.7473056.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502876.787321.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>225.5</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>225.59</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731502879.5074623</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731502879.5543103</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502879.5074623.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502879.5543103.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>224.31</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>224.39</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731502882.9009886</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731502883.0532448</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731502882.9009886.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731502883.0532448.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1065.2</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1064</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731502884.125868</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731502884.1951652</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731502884.125868.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731502884.1951652.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1066.8</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1066.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2052,832 +2353,985 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731502887.777086</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731502887.8473582</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731502887.777086.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731502887.8473582.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>12.207</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>12.204</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.003000000000000114</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731502891.3756</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731502891.4234238</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731502891.3756.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731502891.4234238.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>12.195</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>12.2</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.004999999999999005</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731502895.613393</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731502895.6534092</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502895.613393.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502895.6534092.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>127</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>126.98</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731502895.8408034</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731502895.976466</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502895.8408034.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502895.976466.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>127.16</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>127</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731502898.7583287</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731502898.9701514</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502898.7583287.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502898.9701514.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>126.84</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>126.8</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.04000000000000625</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731502902.1918986</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731502902.2885222</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731502902.1918986.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731502902.2885222.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>164.8</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>164.72</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.08000000000001251</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731502906.4814198</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731502906.5566</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731502906.4814198.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731502906.5566.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>164.32</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>164.58</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.2600000000000193</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731502909.1751814</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731502909.2679014</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731502909.1751814.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731502909.2679014.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>50.565</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>50.495</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731502910.491806</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731502910.5864792</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731502910.491806.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731502910.5864792.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>50.55</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>50.545</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.004999999999995453</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731502912.2339666</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731502912.3598714</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731502912.2339666.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731502912.3598714.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>50.24</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>50.29</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731502912.9835358</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731502913.0547836</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731502912.9835358.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731502913.0547836.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>50.07</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>50.105</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.03499999999999659</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731502913.2353444</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731502913.305616</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731502913.2353444.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731502913.305616.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>50.215</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>50.205</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.01000000000000512</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731502915.3766892</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731502915.518209</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731502915.3766892.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731502915.518209.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1410</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1409.8</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731502916.1096654</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731502916.1887214</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731502916.1096654.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731502916.1887214.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1408.4</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1409</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731502917.5580497</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731502917.6693413</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731502917.5580497.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731502917.6693413.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1408.2</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1407.8</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.4000000000000909</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731502919.225059</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731502919.308018</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731502919.225059.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731502919.308018.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1398.2</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1400</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731502919.9668183</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731502920.0995824</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731502919.9668183.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731502920.0995824.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1401.6</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1401.6</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2885,97 +3339,115 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731502921.614307</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731502921.7997472</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731502921.614307.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731502921.7997472.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>59.67</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>59.66</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731502934.8801148</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731502934.9806435</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502934.8801148.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502934.9806435.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>57.22</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>57.22</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2983,931 +3455,1102 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731502935.241266</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731502935.279324</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502935.241266.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502935.279324.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>57.13</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>57.18</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731502935.3427398</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731502935.3798268</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502935.3427398.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502935.3798268.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>57.03</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>57.11</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731502938.3741963</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731502938.464965</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502938.3741963.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502938.464965.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>56.74</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>56.85</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731502940.2676377</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731502940.4111092</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502940.2676377.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502940.4111092.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>158.76</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>158.68</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.07999999999998408</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731502940.8171268</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731502940.9703584</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502940.8171268.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502940.9703584.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>157.9</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>158.12</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731502941.3500218</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731502941.4759252</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502941.3500218.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502941.4759252.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>158.84</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>158.66</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731502943.668024</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731502943.7100189</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502943.668024.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502943.7100189.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>158.08</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>157.8</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731502944.561064</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731502944.741624</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502944.561064.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502944.741624.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>156.68</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>156.74</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731502946.7980561</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731502946.9181044</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731502946.7980561.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731502946.9181044.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>0.3114</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>0.3115</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-9.999999999998899e-05</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731502949.5367143</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731502949.6070132</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731502949.5367143.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731502949.6070132.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>0.3106</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>0.311</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.0004000000000000115</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731502950.4609857</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731502950.8299148</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731502950.4609857.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731502950.8299148.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>0.3095</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>0.3088</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.0006999999999999784</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731502952.6511312</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731502953.0454628</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502952.6511312.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502953.0454628.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>20.937</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>20.882</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.05499999999999972</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731502954.6987798</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731502955.1301713</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502954.6987798.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502955.1301713.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>20.844</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>20.843</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.001000000000001222</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731502957.152446</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731502957.2315004</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502957.152446.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502957.2315004.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>20.736</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>20.788</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.0519999999999996</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731502957.9449573</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731502958.004521</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502957.9449573.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502958.004521.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>20.666</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>20.697</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.03099999999999881</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731502959.5739021</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731502959.7691019</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731502959.5739021.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731502959.7691019.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>692.5</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>691.95</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.5499999999999545</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731502962.9098716</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731502963.0845764</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731502962.9098716.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731502963.0845764.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>692.7</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>691.7</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731502963.7814395</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731502963.8790405</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731502963.7814395.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731502963.8790405.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>690.1</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>690.7</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731502969.2568343</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731502969.3592825</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731502969.2568343.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731502969.3592825.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>157.25</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>157.26</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -3921,7 +4564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3950,6 +4593,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3966,6 +4619,12 @@
       <c r="D2" t="n">
         <v>0.0699999999999837</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3982,6 +4641,12 @@
       <c r="D3" t="n">
         <v>0.2583333333333447</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3998,6 +4663,12 @@
       <c r="D4" t="n">
         <v>2.5</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4014,6 +4685,12 @@
       <c r="D5" t="n">
         <v>0.08199999999999932</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4030,6 +4707,12 @@
       <c r="D6" t="n">
         <v>0.03200000000000074</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4046,6 +4729,12 @@
       <c r="D7" t="n">
         <v>0.4399999999999636</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4062,6 +4751,12 @@
       <c r="D8" t="n">
         <v>0.04400000000000546</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4078,6 +4773,12 @@
       <c r="D9" t="n">
         <v>0.006749999999999368</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4094,6 +4795,12 @@
       <c r="D10" t="n">
         <v>-0.07500000000000284</v>
       </c>
+      <c r="E10" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4110,6 +4817,12 @@
       <c r="D11" t="n">
         <v>0.05999999999999872</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4126,6 +4839,12 @@
       <c r="D12" t="n">
         <v>-0.3166666666666439</v>
       </c>
+      <c r="E12" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4142,6 +4861,12 @@
       <c r="D13" t="n">
         <v>-0.0001333333333333186</v>
       </c>
+      <c r="E13" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4158,6 +4883,12 @@
       <c r="D14" t="n">
         <v>0.04666666666666212</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4174,6 +4905,12 @@
       <c r="D15" t="n">
         <v>0.09000000000000341</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4190,6 +4927,12 @@
       <c r="D16" t="n">
         <v>0.6000000000000227</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4206,6 +4949,12 @@
       <c r="D17" t="n">
         <v>0.003999999999999559</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4222,6 +4971,12 @@
       <c r="D18" t="n">
         <v>0.04499999999998749</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4238,6 +4993,12 @@
       <c r="D19" t="n">
         <v>0.009999999999990905</v>
       </c>
+      <c r="E19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4254,6 +5015,12 @@
       <c r="D20" t="n">
         <v>-0.01000000000000512</v>
       </c>
+      <c r="E20" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4268,6 +5035,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
